--- a/results/test/Results.xlsx
+++ b/results/test/Results.xlsx
@@ -37,15 +37,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c4c4c4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -66,11 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,13 +440,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -450,7 +460,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -460,41 +470,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1387</v>
-      </c>
-      <c r="C2" t="n">
-        <v>749</v>
-      </c>
-      <c r="D2" t="n">
-        <v>473</v>
+      <c r="B2" s="2" t="n">
+        <v>2453</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1442</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1742</v>
-      </c>
-      <c r="C3" t="n">
-        <v>690</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>3322</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -509,13 +567,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="9.799999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -523,7 +587,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -533,41 +597,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>306038</v>
-      </c>
-      <c r="C2" t="n">
-        <v>146441</v>
-      </c>
-      <c r="D2" t="n">
-        <v>77388</v>
+      <c r="B2" s="2" t="n">
+        <v>204698</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>151382</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>79015</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>248370</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>120416</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>120416</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>205561</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>412833</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>147280</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>205331</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>552756</v>
-      </c>
-      <c r="C3" t="n">
-        <v>152361</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>204693</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>157373</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,13 +694,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="11.2" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -596,7 +714,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -606,41 +724,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1406881</v>
-      </c>
-      <c r="C2" t="n">
-        <v>926449</v>
-      </c>
-      <c r="D2" t="n">
-        <v>545422</v>
+      <c r="B2" s="2" t="n">
+        <v>1136081</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>879223</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>440276</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1344830</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>718303</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>718303</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1040392</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2994039</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1225517</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1581092</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1569985</v>
-      </c>
-      <c r="C3" t="n">
-        <v>972393</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>1378000</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>963117</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -655,13 +821,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="11.2" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -669,7 +841,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -679,41 +851,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2596185</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1931121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>956414</v>
+      <c r="B2" s="2" t="n">
+        <v>2475360</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1914248</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1015362</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2843666</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1536467</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1536467</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2561565</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>6794836</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2865727</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3638695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3179365</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2040108</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>3100007</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1959719</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -728,13 +948,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -742,7 +968,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -752,41 +978,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1428</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>669</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>282</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1873</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1416</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>12419</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>4950</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,13 +1075,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -815,7 +1095,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -825,41 +1105,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1521</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>868</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1274</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>7819</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>4758</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>4950</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,13 +1202,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -888,7 +1222,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -898,41 +1232,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="C2" t="n">
-        <v>795</v>
-      </c>
-      <c r="D2" t="n">
-        <v>462</v>
+      <c r="B2" s="2" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>469</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>904</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3087</v>
-      </c>
-      <c r="C3" t="n">
-        <v>636</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>974</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,13 +1329,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -961,7 +1349,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -971,41 +1359,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>36</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,13 +1456,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1034,7 +1476,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -1044,41 +1486,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>51</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,13 +1583,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1107,7 +1603,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -1117,41 +1613,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3906</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2086</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1731</v>
+      <c r="B2" s="2" t="n">
+        <v>3493</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1599</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>911</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>951</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2206</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1784</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1166,13 +1710,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1180,7 +1730,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -1190,41 +1740,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>10230</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2961</v>
+      <c r="B2" s="2" t="n">
+        <v>8859</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3018</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>12100</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3853</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>6625</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>19609</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3022</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9264</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4770</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>8056</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4639</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,13 +1837,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1253,7 +1857,7 @@
           <t>sorter</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>average time</t>
         </is>
@@ -1263,41 +1867,89 @@
           <t>comparisons</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>swaps</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>quick_sort</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>51953</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5797</v>
+      <c r="B2" s="2" t="n">
+        <v>26442</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>11496</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5731</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>22016</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8695</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>21374</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>26016</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7967</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>11962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>39350</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11975</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>14593</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>11239</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/test/Results.xlsx
+++ b/results/test/Results.xlsx
@@ -15,10 +15,6 @@
     <sheet name="case6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="case7" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="case8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="case9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="case10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="case11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="case12" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +444,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -479,461 +475,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2453</v>
+        <v>5903</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>704</v>
+        <v>4950</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>391</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2490</v>
+        <v>8367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>544</v>
+        <v>4845</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>544</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1442</v>
+        <v>3463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>2524</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1244</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>432</v>
+        <v>721</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>668</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2249</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3322</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
-    <col width="18.2" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="9.799999999999999" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sorter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>average time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>swaps</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>quick_sort</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>204698</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>151382</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>79015</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>merge_sort</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>248370</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>120416</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>120416</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>radix_sort</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>205561</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>shell_sort</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>412833</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>147280</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>205331</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tree_sort</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>204693</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>157373</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
-    <col width="18.2" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="11.2" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sorter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>average time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>swaps</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>quick_sort</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1136081</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>879223</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>440276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>merge_sort</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1344830</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>718303</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>718303</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>radix_sort</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1040392</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>shell_sort</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2994039</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1225517</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1581092</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tree_sort</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1378000</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>963117</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
-    <col width="18.2" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="11.2" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sorter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>average time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>swaps</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>quick_sort</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2475360</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1914248</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1015362</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>merge_sort</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2843666</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1536467</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1536467</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>radix_sort</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2561565</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>shell_sort</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>6794836</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2865727</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3638695</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tree_sort</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3100007</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1959719</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1343</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -948,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -987,80 +650,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1021</v>
+        <v>4781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>669</v>
+        <v>4950</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1873</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1416</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>5471</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B9" s="2" t="n">
+        <v>5949</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>4950</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1075,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +794,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1114,80 +825,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1620</v>
+        <v>4766</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>868</v>
+        <v>4950</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1953</v>
+        <v>11614</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>356</v>
+        <v>4950</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>356</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1274</v>
+        <v>8006</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>4950</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1480</v>
+        <v>1301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>260</v>
+        <v>868</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>4758</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B9" s="2" t="n">
+        <v>5504</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>4950</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,7 +969,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1241,80 +1000,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1678</v>
+        <v>5020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>799</v>
+        <v>4950</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>469</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1881</v>
+        <v>7621</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>538</v>
+        <v>4922</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>538</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>904</v>
+        <v>2961</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>2241</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1511</v>
+        <v>1243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>375</v>
+        <v>766</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>595</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>974</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1329,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,7 +1144,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1368,11 +1175,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1384,11 +1191,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1400,11 +1207,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1416,11 +1223,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -1432,16 +1239,64 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1456,7 +1311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1464,7 +1319,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1495,11 +1350,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1511,11 +1366,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1527,11 +1382,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1543,11 +1398,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -1559,16 +1414,64 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1583,7 +1486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,7 +1494,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1622,80 +1525,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3493</v>
+        <v>4212</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1972</v>
+        <v>4950</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1599</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1960</v>
+        <v>5698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>519</v>
+        <v>3624</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>519</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>911</v>
+        <v>2998</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>1669</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>951</v>
+        <v>3846</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>192</v>
+        <v>1807</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>320</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2164</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1326</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>2042</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1705</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>2682</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,7 +1669,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
@@ -1749,207 +1700,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>quick_sort</t>
+          <t>selection_sort</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>8859</v>
+        <v>88740</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5048</v>
+        <v>124750</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3018</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>merge_sort</t>
+          <t>bubble_sort</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>12100</v>
+        <v>182421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3853</v>
+        <v>124540</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3853</v>
+        <v>62237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>radix_sort</t>
+          <t>insertion_sort</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6625</v>
+        <v>83363</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>62237</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>62736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>shell_sort</t>
+          <t>quick_sort</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>19609</v>
+        <v>8194</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3022</v>
+        <v>4898</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4727</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>merge_sort</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10259</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3854</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>radix_sort</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6521</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>shell_sort</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>10203</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2942</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>tree_sort</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>8056</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15.4" customWidth="1" min="1" max="1"/>
-    <col width="18.2" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="8.399999999999999" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sorter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>average time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>swaps</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>quick_sort</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>26442</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>11496</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>5731</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>merge_sort</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>22016</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>8695</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>8695</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>radix_sort</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>21374</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>shell_sort</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>26016</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>7967</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>11962</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tree_sort</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>14593</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>11239</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>6504</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4469</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
